--- a/Debugging-Cleaning/data/clean_star_wars.xlsx
+++ b/Debugging-Cleaning/data/clean_star_wars.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zamarin Lab\Documents\GitHub\Umbrella-Academy\Debugging-Cleaning\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{60037DB0-E22C-4D5A-AD50-89A36B86F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7C18B-1C38-4774-B707-D39CB2705552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8B16C1CC-7B4B-4609-9083-335D4D707AC9}"/>
   </bookViews>
@@ -722,67 +722,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -815,51 +755,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1193,11 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DB6326-5142-4C81-9919-82A72E93F279}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1320,7 +1219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1556,28 +1455,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q7" xr:uid="{28DB6326-5142-4C81-9919-82A72E93F279}">
-    <filterColumn colId="16">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Kashyyyk">
-      <formula>NOT(ISERROR(SEARCH("Kashyyyk",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
-      <formula>58</formula>
-      <formula>110</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <autoFilter ref="A1:Q7" xr:uid="{28DB6326-5142-4C81-9919-82A72E93F279}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -1590,6 +1468,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+      <formula>58</formula>
+      <formula>110</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Kashyyyk">
+      <formula>NOT(ISERROR(SEARCH("Kashyyyk",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>